--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3741635.822668235</v>
+        <v>3845047.558632316</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7426240.699613569</v>
+        <v>7391210.978340814</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -716,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>5.247097505316078</v>
+        <v>35.99852294946763</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>20.45352712646373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>110.2398088806202</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -880,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>302.0446906539631</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>79.76470074482877</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>127.6501441214361</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>151.7056199891045</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>360.7317673174969</v>
       </c>
       <c r="H8" t="n">
-        <v>9.099573361141621</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>13.19424626544792</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>7.043238784028848</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1351,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>55.49215756129657</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>140.7058473537595</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>39.83255574579498</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>124.8808320771208</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>5.623597659135275</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>78.71385496658196</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112.5133406574299</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>177.1006680594871</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>166.7797097944361</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2843,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002281</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652588</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>180.1003471321698</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>21.69718571885174</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308922</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096051</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>20.22544352992953</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652651</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>192.9183958257884</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.962173606588</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261725</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308934</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.239490800229</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652574</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808186</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352484</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972043</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969973</v>
+        <v>60.78102717027888</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>128.5251451036098</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>4.019807611472022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4364,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2750.506830304106</v>
+        <v>2719.444784400922</v>
       </c>
       <c r="W2" t="n">
-        <v>2750.506830304106</v>
+        <v>2719.444784400922</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.041072043026</v>
+        <v>2345.979026139843</v>
       </c>
       <c r="Y2" t="n">
-        <v>1986.901740067214</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686082</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064756</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080136</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.741664998631</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>590.8070661251691</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C4" t="n">
-        <v>590.8070661251691</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D4" t="n">
-        <v>590.8070661251691</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
-        <v>442.8939725427759</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>442.8939725427759</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>275.1911359174949</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X4" t="n">
-        <v>590.8070661251691</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y4" t="n">
-        <v>590.8070661251691</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1175.300932605789</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>806.3384156653776</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>806.3384156653776</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>420.5501630671334</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>413.6046623179299</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4568,7 +4570,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645723</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669911</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4668,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4689,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>590.8070661251691</v>
+        <v>844.171363847817</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4726,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1582.370663926325</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1292.953493889364</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251691</v>
+        <v>1064.963942991347</v>
       </c>
       <c r="Y7" t="n">
-        <v>590.8070661251691</v>
+        <v>844.171363847817</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.509627919559</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C8" t="n">
-        <v>1329.547110979147</v>
+        <v>1200.139242371468</v>
       </c>
       <c r="D8" t="n">
-        <v>1329.547110979147</v>
+        <v>841.8735437647172</v>
       </c>
       <c r="E8" t="n">
-        <v>943.7588583809031</v>
+        <v>841.8735437647172</v>
       </c>
       <c r="F8" t="n">
-        <v>532.7729535912956</v>
+        <v>430.8876389751096</v>
       </c>
       <c r="G8" t="n">
-        <v>117.7005034362921</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919559</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>788.0919254117579</v>
+        <v>538.8965081646984</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>369.9603252367915</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>219.8436858244558</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>969.7403902419976</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X10" t="n">
-        <v>969.7403902419976</v>
+        <v>941.3375521384683</v>
       </c>
       <c r="Y10" t="n">
-        <v>969.7403902419976</v>
+        <v>720.5449729949381</v>
       </c>
     </row>
     <row r="11">
@@ -5024,31 +5026,31 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5057,31 +5059,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.5813165460164</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>385.6451336181095</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2018.188796316454</v>
+        <v>2156.827640693835</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.113569660651</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V16" t="n">
-        <v>1474.429081454764</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W16" t="n">
-        <v>1185.011911417804</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X16" t="n">
-        <v>957.0223605197863</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y16" t="n">
-        <v>736.2297813762561</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,25 +5530,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>443.7574521812145</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>348.7798673610725</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>181.5837680759525</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5944,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1608.876909444017</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1319.459739407057</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1319.459739407057</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263527</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.6905094135296</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C25" t="n">
-        <v>700.7543264856228</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>4262.043050609448</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614387</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474262</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1808.996727182795</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1554.312238976908</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>816.1129388984</v>
       </c>
     </row>
     <row r="29">
@@ -6455,40 +6457,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319316</v>
+        <v>3047.734188001554</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656809</v>
+        <v>2878.798005073647</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150014</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942646</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580104</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384021</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380727</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>898.265941231132</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>4441.867906093247</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>4222.266441116189</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>4222.266441116189</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>3967.581952910302</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>3678.164782873341</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>3450.175231975324</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>3229.382652831794</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6700,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6928,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7165,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942661</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580121</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345483</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384027</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="41">
@@ -7409,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319338</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656833</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150039</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942672</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1082.889218672183</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7628,37 +7630,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7737,13 +7739,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>111.7546635373313</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>40.32043864788506</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>177.5728945814933</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>40.64330621514804</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>173.4237883572461</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.31863952450736</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>40.30478226780113</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>144.5956654067404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>119.404764594808</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.9259388694748054</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>126.9182872993606</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>32.79125956324873</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>164.9286282187583</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>38.72167599501802</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>636517.6061299765</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>636517.6061299763</v>
+        <v>636517.6061299765</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>636517.6061299763</v>
+        <v>636517.6061299765</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647286.3630150413</v>
+        <v>636517.6061299765</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>647286.3630150413</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>647286.3630150413</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>647286.3630150413</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>647286.3630150413</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176755</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176758</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176773</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176771</v>
-      </c>
       <c r="P2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977555</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26368,7 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,7 +26377,7 @@
         <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="C4" t="n">
+        <v>90964.01098815713</v>
+      </c>
+      <c r="D4" t="n">
         <v>90964.01098815711</v>
       </c>
-      <c r="D4" t="n">
-        <v>90964.01098815713</v>
-      </c>
       <c r="E4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26439,25 +26441,25 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>19767.83547989927</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>19767.83547989929</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>19767.83547989929</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989929</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.83547989932</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
     </row>
     <row r="5">
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727126.9716594676</v>
+        <v>-727126.9716594674</v>
       </c>
       <c r="C6" t="n">
-        <v>601617.7740681252</v>
+        <v>601617.7740681253</v>
       </c>
       <c r="D6" t="n">
-        <v>601617.7740681252</v>
+        <v>601617.7740681256</v>
       </c>
       <c r="E6" t="n">
         <v>348655.9668496876</v>
@@ -26534,34 +26536,34 @@
         <v>674068.4286570428</v>
       </c>
       <c r="G6" t="n">
+        <v>674068.428657043</v>
+      </c>
+      <c r="H6" t="n">
+        <v>674068.4286570428</v>
+      </c>
+      <c r="I6" t="n">
         <v>674068.4286570429</v>
-      </c>
-      <c r="H6" t="n">
-        <v>674068.428657043</v>
-      </c>
-      <c r="I6" t="n">
-        <v>674068.428657043</v>
       </c>
       <c r="J6" t="n">
         <v>456537.2262597656</v>
       </c>
       <c r="K6" t="n">
-        <v>658156.0562902305</v>
+        <v>674068.4286570428</v>
       </c>
       <c r="L6" t="n">
-        <v>677583.7742838624</v>
+        <v>674068.4286570427</v>
       </c>
       <c r="M6" t="n">
-        <v>592528.7463483493</v>
+        <v>589013.400721531</v>
       </c>
       <c r="N6" t="n">
-        <v>677583.7742838627</v>
+        <v>674068.4286570427</v>
       </c>
       <c r="O6" t="n">
-        <v>677583.7742838623</v>
+        <v>674068.4286570429</v>
       </c>
       <c r="P6" t="n">
-        <v>674068.4286570427</v>
+        <v>674068.4286570426</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26796,13 +26798,13 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26969,7 +26971,7 @@
         <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>322.5051609648188</v>
+        <v>291.7537355206673</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>159.3784530554736</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,16 +27545,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>34.51520603370055</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>108.8770349994904</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>306.4732379112248</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>39.59667697719169</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>100.4320233347235</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>50.18995833595653</v>
       </c>
       <c r="H8" t="n">
-        <v>285.5081910261788</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>154.0525748331799</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>139.3907238625403</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28612,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,19 +32074,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32096,7 +32098,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>361.5531172119654</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>138.5955196772184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>355.4083096598243</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32968,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>689.3300812557329</v>
       </c>
       <c r="O27" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>337.5641188593844</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>601.0567753070492</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,19 +33736,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33757,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,7 +33982,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>454.1257695262137</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,28 +34210,28 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>624.1318526922785</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34457,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P45" t="n">
-        <v>353.130074847795</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35744,7 +35746,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>557.9883691723996</v>
       </c>
       <c r="O27" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>199.0097390795102</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>469.7150632237159</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37405,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,7 +37630,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>311.9917356041954</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>481.5356082478341</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986648</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919382</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38105,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P45" t="n">
-        <v>219.1556674334648</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3845047.558632316</v>
+        <v>3841034.948618324</v>
       </c>
     </row>
     <row r="7">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>101.4886880688484</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>35.99852294946763</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.45352712646373</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>241.4381213318759</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>50.04052206184288</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>79.76470074482877</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247811</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>151.7056199891045</v>
+        <v>157.7822070347161</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>360.7317673174969</v>
+        <v>133.2099892451615</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>7.043238784028848</v>
+        <v>77.31354443380461</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>39.52129633183122</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>39.83255574579498</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>124.8808320771208</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>5.623597659135275</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>177.1006680594871</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
-        <v>166.7797097944361</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>180.1003471321698</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>21.69718571885174</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>20.22544352992953</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>192.9183958257884</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>125.2851635392052</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>60.78102717027888</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>128.5251451036098</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380157</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3223.091995277</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3223.091995277</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2969.561518550836</v>
       </c>
       <c r="V2" t="n">
-        <v>2719.444784400922</v>
+        <v>2638.498631207266</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.444784400922</v>
+        <v>2285.729975937151</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.979026139843</v>
+        <v>2285.729975937151</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>2285.729975937151</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.09613355694</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.643104275813</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609106</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686089</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064765</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080144</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986317</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547495</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341962</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577008</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971289</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="X4" t="n">
-        <v>866.1004720732712</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y4" t="n">
-        <v>645.3078929297411</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3164.769171255616</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.939223126803</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>844.171363847817</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199101</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1582.370663926325</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1292.953493889364</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1064.963942991347</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.171363847817</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1569.101759311879</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C8" t="n">
-        <v>1200.139242371468</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D8" t="n">
-        <v>841.8735437647172</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="E8" t="n">
-        <v>841.8735437647172</v>
+        <v>654.0504646744046</v>
       </c>
       <c r="F8" t="n">
-        <v>430.8876389751096</v>
+        <v>243.064559884797</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883007</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612893</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.840931351813</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1955.701599376001</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.8965081646984</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>369.9603252367915</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>219.8436858244558</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1169.327103036486</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>941.3375521384683</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>720.5449729949381</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5032,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277355</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>215.8238677453423</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>215.8238677453423</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>215.8238677453423</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,28 +5272,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2156.827640693835</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5530,13 +5530,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>888.6771326738537</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>738.560493261518</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>590.6473996791249</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>443.7574521812145</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>962.6357307816187</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>793.6995478537118</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D22" t="n">
-        <v>643.582908441376</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E22" t="n">
-        <v>495.6698148589829</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>348.7798673610725</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>181.5837680759525</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4262.043050609448</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3972.967823953646</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3972.967823953646</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,40 +6205,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>634.4644740681603</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1808.996727182795</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1554.312238976908</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1264.895068939947</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1036.90551804193</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>816.1129388984</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3047.734188001554</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>2878.798005073647</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>4441.867906093247</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>4222.266441116189</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>4222.266441116189</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3967.581952910302</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3678.164782873341</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3450.175231975324</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3229.382652831794</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.4894946679489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6605733532803</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253734</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
         <v>484.8112968429803</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X40" t="n">
-        <v>1204.10161732705</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.30903818352</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>680.448174698413</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X43" t="n">
-        <v>1082.889218672183</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y43" t="n">
-        <v>862.0966395286528</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5477693179085</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.288530476235451e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>100.7734165143927</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>177.5728945814933</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>40.64330621514804</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.6711151870886</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>40.30478226780113</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
-        <v>119.404764594808</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9259388694748054</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>126.9182872993606</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>266.2975548066615</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>32.79125956324873</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>92.12028678808304</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>164.9286282187583</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>38.72167599501802</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>647286.3630150413</v>
+        <v>647286.3630150415</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>647286.3630150413</v>
+        <v>647286.3630150415</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>636517.6061299765</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>636517.6061299765</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>636517.6061299765</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="12">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176759</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176753</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="F2" t="n">
         <v>786967.934697756</v>
@@ -26331,31 +26331,31 @@
         <v>786967.9346977557</v>
       </c>
       <c r="H2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="L2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.0109881572</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881572</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727126.9716594674</v>
+        <v>-727126.9716594666</v>
       </c>
       <c r="C6" t="n">
-        <v>601617.7740681253</v>
+        <v>601617.7740681254</v>
       </c>
       <c r="D6" t="n">
-        <v>601617.7740681256</v>
+        <v>601617.7740681246</v>
       </c>
       <c r="E6" t="n">
-        <v>348655.9668496876</v>
+        <v>348308.5875953304</v>
       </c>
       <c r="F6" t="n">
-        <v>674068.4286570428</v>
+        <v>673721.0494026861</v>
       </c>
       <c r="G6" t="n">
-        <v>674068.428657043</v>
+        <v>673721.0494026858</v>
       </c>
       <c r="H6" t="n">
-        <v>674068.4286570428</v>
+        <v>673721.049402686</v>
       </c>
       <c r="I6" t="n">
-        <v>674068.4286570429</v>
+        <v>673721.0494026858</v>
       </c>
       <c r="J6" t="n">
-        <v>456537.2262597656</v>
+        <v>456189.8470054082</v>
       </c>
       <c r="K6" t="n">
-        <v>674068.4286570428</v>
+        <v>673721.049402686</v>
       </c>
       <c r="L6" t="n">
-        <v>674068.4286570427</v>
+        <v>673721.049402686</v>
       </c>
       <c r="M6" t="n">
-        <v>589013.400721531</v>
+        <v>588666.0214671741</v>
       </c>
       <c r="N6" t="n">
-        <v>674068.4286570427</v>
+        <v>673721.0494026858</v>
       </c>
       <c r="O6" t="n">
-        <v>674068.4286570429</v>
+        <v>673721.049402686</v>
       </c>
       <c r="P6" t="n">
-        <v>674068.4286570426</v>
+        <v>673721.049402686</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7.699073719327501</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>291.7537355206673</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.3784530554736</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>44.77371687373699</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>277.711736408292</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>306.4732379112248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>100.4320233347235</v>
+        <v>94.35543628911191</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>50.18995833595653</v>
+        <v>277.7117364082919</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>139.3907238625403</v>
+        <v>69.12041821276456</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,7 +31852,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31861,7 +31861,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>361.5531172119654</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33022,28 +33022,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>689.3300812557329</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>213.3000196296242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>606.5820696732821</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,22 +33733,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N36" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33757,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,16 +33982,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>624.1318526922785</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,7 +35500,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35971,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>219.4190832899471</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>557.9883691723996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>79.325612215294</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>463.9858252288377</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N36" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37405,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,16 +37630,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>481.5356082478341</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3841034.948618324</v>
+        <v>3842795.478921109</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>97.36235466451613</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>101.4886880688484</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,7 +873,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>241.4381213318759</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>75.41231307284821</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>88.0162480906818</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>50.04052206184288</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347161</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>133.2099892451615</v>
+        <v>238.6022248578424</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380461</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756239</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>31.39650288673297</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>23.6255456814127</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.0280580960833</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>125.2851635392052</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1899.13013587303</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C2" t="n">
-        <v>1530.167618932618</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.901920325867</v>
+        <v>1259.215687003709</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276232</v>
+        <v>873.4274344054643</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380157</v>
+        <v>462.4415296158567</v>
       </c>
       <c r="G2" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4342,7 +4342,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3223.091995277</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3223.091995277</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2969.561518550836</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2638.498631207266</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2285.729975937151</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X2" t="n">
-        <v>2285.729975937151</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y2" t="n">
-        <v>2285.729975937151</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686089</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064765</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986317</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>777.6936570343842</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
         <v>163.8377936138381</v>
@@ -4485,7 +4485,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4494,19 +4494,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
@@ -4515,25 +4515,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1180.134701008154</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1180.134701008154</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W4" t="n">
-        <v>1180.134701008154</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X4" t="n">
-        <v>1180.134701008154</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y4" t="n">
-        <v>959.3421218646239</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3164.769171255616</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2812.000515985501</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>2438.534757724422</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.39542574861</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4713,52 +4713,52 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
         <v>1767.918581386758</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221567</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281155</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744046</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E8" t="n">
-        <v>654.0504646744046</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="F8" t="n">
-        <v>243.064559884797</v>
+        <v>647.1049639252025</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,25 +5038,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,19 +5117,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5415,25 +5415,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5515,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,16 +6259,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6408,10 +6408,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
         <v>2035.268256189238</v>
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6691,37 +6691,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6946,10 +6946,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7025,19 +7025,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7074,22 +7074,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2253.366709591041</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U43" t="n">
-        <v>1964.291482935239</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1709.606994729352</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.288530476235451e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516644</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>194.3131525023042</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5874149221290565</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>92.12028678808304</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>647286.3630150415</v>
+        <v>647286.3630150413</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>636517.6061299763</v>
+        <v>636517.6061299765</v>
       </c>
     </row>
     <row r="6">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176753</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977558</v>
@@ -26349,10 +26349,10 @@
         <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977557</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
         <v>786967.9346977558</v>
@@ -26368,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881572</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881572</v>
+        <v>90964.01098815711</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727126.9716594666</v>
+        <v>-727126.9716594669</v>
       </c>
       <c r="C6" t="n">
-        <v>601617.7740681254</v>
+        <v>601617.7740681251</v>
       </c>
       <c r="D6" t="n">
-        <v>601617.7740681246</v>
+        <v>601617.7740681253</v>
       </c>
       <c r="E6" t="n">
-        <v>348308.5875953304</v>
+        <v>348621.228924252</v>
       </c>
       <c r="F6" t="n">
-        <v>673721.0494026861</v>
+        <v>674033.6907316071</v>
       </c>
       <c r="G6" t="n">
-        <v>673721.0494026858</v>
+        <v>674033.6907316073</v>
       </c>
       <c r="H6" t="n">
-        <v>673721.049402686</v>
+        <v>674033.6907316073</v>
       </c>
       <c r="I6" t="n">
-        <v>673721.0494026858</v>
+        <v>674033.6907316073</v>
       </c>
       <c r="J6" t="n">
-        <v>456189.8470054082</v>
+        <v>456502.4883343297</v>
       </c>
       <c r="K6" t="n">
-        <v>673721.049402686</v>
+        <v>674033.6907316073</v>
       </c>
       <c r="L6" t="n">
-        <v>673721.049402686</v>
+        <v>674033.6907316073</v>
       </c>
       <c r="M6" t="n">
-        <v>588666.0214671741</v>
+        <v>588978.6627960954</v>
       </c>
       <c r="N6" t="n">
-        <v>673721.0494026858</v>
+        <v>674033.6907316075</v>
       </c>
       <c r="O6" t="n">
-        <v>673721.049402686</v>
+        <v>674033.6907316071</v>
       </c>
       <c r="P6" t="n">
-        <v>673721.049402686</v>
+        <v>674033.6907316073</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>313.5593709889373</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>7.699073719327501</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>44.77371687373699</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2973423161889</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>277.2566436803257</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>277.711736408292</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.35543628911191</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>277.7117364082919</v>
+        <v>172.319500795611</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276456</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,7 +31852,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32481,7 +32481,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33745,7 +33745,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>281.0363767960755</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33760,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,7 +35500,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>138.9023428740572</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37408,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
